--- a/Priority Queue/TR.xlsx
+++ b/Priority Queue/TR.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TSN\Priority Queue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCChen\Documents\GitHub\TSN\Priority Queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9928084-2892-45B4-8D24-BDBD09714372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C592C613-C280-4965-82F3-58695D6CDF2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{91CC5245-BB3B-42BD-8CB1-FFD6A74AC878}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -169,6 +166,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>TR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2688,67 +2715,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="工作表1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>flow 0</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>flow 1</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>flow 2</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>flow 3</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>flow 4</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>flow 5</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>flow 6</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>flow 7</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>flow 8</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>flow 9</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>flow 10</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>flow 11</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>flow 12</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>flow 13</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>flow 14</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -3049,7 +3015,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
